--- a/multi.xlsx
+++ b/multi.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C1:H50"/>
+  <dimension ref="C1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,6 +974,442 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2019-07-01</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2019-07-04</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2019-07-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2019-07-10</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2019-07-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2019-07-16</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2019-07-19</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2019-07-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2019-07-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2019-07-28</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2019-07-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2019-08-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2019-06-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2019-06-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2019-06-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2019-06-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2019-06-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2019-06-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2019-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2019-11-01</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>228</v>
+      </c>
+      <c r="E70" t="n">
+        <v>296</v>
+      </c>
+      <c r="F70" t="n">
+        <v>183</v>
+      </c>
+      <c r="G70" t="n">
+        <v>284</v>
+      </c>
+      <c r="H70" t="n">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2019-11-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>228</v>
+      </c>
+      <c r="E72" t="n">
+        <v>296</v>
+      </c>
+      <c r="F72" t="n">
+        <v>168</v>
+      </c>
+      <c r="G72" t="n">
+        <v>278</v>
+      </c>
+      <c r="H72" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2019-11-10</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>228</v>
+      </c>
+      <c r="E73" t="n">
+        <v>296</v>
+      </c>
+      <c r="F73" t="n">
+        <v>168</v>
+      </c>
+      <c r="G73" t="n">
+        <v>278</v>
+      </c>
+      <c r="H73" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2019-11-04</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>228</v>
+      </c>
+      <c r="E74" t="n">
+        <v>296</v>
+      </c>
+      <c r="F74" t="n">
+        <v>168</v>
+      </c>
+      <c r="G74" t="n">
+        <v>278</v>
+      </c>
+      <c r="H74" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>228</v>
+      </c>
+      <c r="E75" t="n">
+        <v>296</v>
+      </c>
+      <c r="F75" t="n">
+        <v>168</v>
+      </c>
+      <c r="G75" t="n">
+        <v>278</v>
+      </c>
+      <c r="H75" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2019-11-10</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>228</v>
+      </c>
+      <c r="E76" t="n">
+        <v>296</v>
+      </c>
+      <c r="F76" t="n">
+        <v>168</v>
+      </c>
+      <c r="G76" t="n">
+        <v>278</v>
+      </c>
+      <c r="H76" t="n">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2019-07-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2019-07-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2019-07-07</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2019-07-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2019-07-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2019-07-16</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2019-07-19</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2019-07-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2019-07-25</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>410</v>
+      </c>
+      <c r="F85" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2019-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2019-07-31</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>410</v>
+      </c>
+      <c r="F87" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2019-06-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2019-06-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2019-07-02</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2019-07-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2019-07-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2019-07-10</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/multi.xlsx
+++ b/multi.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C1:H93"/>
+  <dimension ref="C1:H126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1410,6 +1410,345 @@
         <v>353</v>
       </c>
     </row>
+    <row r="94">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2019-11-01</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>228</v>
+      </c>
+      <c r="E94" t="n">
+        <v>296</v>
+      </c>
+      <c r="F94" t="n">
+        <v>183</v>
+      </c>
+      <c r="G94" t="n">
+        <v>284</v>
+      </c>
+      <c r="H94" t="n">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2019-11-02</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>228</v>
+      </c>
+      <c r="E95" t="n">
+        <v>296</v>
+      </c>
+      <c r="F95" t="n">
+        <v>178</v>
+      </c>
+      <c r="G95" t="n">
+        <v>282</v>
+      </c>
+      <c r="H95" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2019-11-01</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>228</v>
+      </c>
+      <c r="E96" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2019-11-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2019-11-01</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>228</v>
+      </c>
+      <c r="E98" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2019-11-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2019-11-01</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>228</v>
+      </c>
+      <c r="E100" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2019-11-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2019-11-01</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>228</v>
+      </c>
+      <c r="E102" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2019-11-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2019-07-15</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2019-07-18</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2019-07-21</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2019-07-24</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2019-07-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2019-07-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2019-08-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2019-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2019-08-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2019-08-11</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2019-08-14</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2019-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2019-08-01</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2019-08-04</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2019-08-07</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2019-08-10</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2019-08-13</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>410</v>
+      </c>
+      <c r="F120" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2019-08-16</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>410</v>
+      </c>
+      <c r="F121" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2019-08-19</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>410</v>
+      </c>
+      <c r="F122" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2019-08-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2019-08-25</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/multi.xlsx
+++ b/multi.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C1:H126"/>
+  <dimension ref="C1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1749,6 +1749,249 @@
         </is>
       </c>
     </row>
+    <row r="127">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2019-07-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2019-07-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2019-07-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2019-07-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2019-07-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2019-08-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2019-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2019-08-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2019-08-11</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2019-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2019-08-17</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>410</v>
+      </c>
+      <c r="F137" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2019-08-20</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>410</v>
+      </c>
+      <c r="F138" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2019-08-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2019-08-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2019-11-01</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2019-11-04</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>190</v>
+      </c>
+      <c r="G144" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2019-11-07</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2019-11-10</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2019-11-16</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2019-11-19</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2019-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>213</v>
+      </c>
+      <c r="G152" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2019-11-30</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>213</v>
+      </c>
+      <c r="G153" t="n">
+        <v>331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/multi.xlsx
+++ b/multi.xlsx
@@ -12,6 +12,260 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>CHC-1 BED 548ft2</t>
+  </si>
+  <si>
+    <t>CHC-2 BED 656ft2</t>
+  </si>
+  <si>
+    <t>ASC-1 BED 624ft2</t>
+  </si>
+  <si>
+    <t>ASC-2 BED 936ft2</t>
+  </si>
+  <si>
+    <t>ASC-3 BED 624ft2</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-06-03</t>
+  </si>
+  <si>
+    <t>2019-06-06</t>
+  </si>
+  <si>
+    <t>2019-06-09</t>
+  </si>
+  <si>
+    <t>2019-06-12</t>
+  </si>
+  <si>
+    <t>2019-06-15</t>
+  </si>
+  <si>
+    <t>2019-06-18</t>
+  </si>
+  <si>
+    <t>2019-06-20</t>
+  </si>
+  <si>
+    <t>2019-06-08</t>
+  </si>
+  <si>
+    <t>2019-06-11</t>
+  </si>
+  <si>
+    <t>2019-06-14</t>
+  </si>
+  <si>
+    <t>2019-06-17</t>
+  </si>
+  <si>
+    <t>2019-11-01</t>
+  </si>
+  <si>
+    <t>2019-11-04</t>
+  </si>
+  <si>
+    <t>2019-11-07</t>
+  </si>
+  <si>
+    <t>2019-11-10</t>
+  </si>
+  <si>
+    <t>2019-11-13</t>
+  </si>
+  <si>
+    <t>2019-11-15</t>
+  </si>
+  <si>
+    <t>2019-07-01</t>
+  </si>
+  <si>
+    <t>2019-07-04</t>
+  </si>
+  <si>
+    <t>2019-07-07</t>
+  </si>
+  <si>
+    <t>2019-07-10</t>
+  </si>
+  <si>
+    <t>2019-07-13</t>
+  </si>
+  <si>
+    <t>2019-07-15</t>
+  </si>
+  <si>
+    <t>2019-11-03</t>
+  </si>
+  <si>
+    <t>2019-11-02</t>
+  </si>
+  <si>
+    <t>2019-12-01</t>
+  </si>
+  <si>
+    <t>2019-12-03</t>
+  </si>
+  <si>
+    <t>2019-07-16</t>
+  </si>
+  <si>
+    <t>2019-07-19</t>
+  </si>
+  <si>
+    <t>2019-07-22</t>
+  </si>
+  <si>
+    <t>2019-07-25</t>
+  </si>
+  <si>
+    <t>2019-07-28</t>
+  </si>
+  <si>
+    <t>2019-07-31</t>
+  </si>
+  <si>
+    <t>2019-08-01</t>
+  </si>
+  <si>
+    <t>2019-06-21</t>
+  </si>
+  <si>
+    <t>2019-06-24</t>
+  </si>
+  <si>
+    <t>2019-06-27</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-06-26</t>
+  </si>
+  <si>
+    <t>2019-06-29</t>
+  </si>
+  <si>
+    <t>2019-07-02</t>
+  </si>
+  <si>
+    <t>2019-07-05</t>
+  </si>
+  <si>
+    <t>2019-07-08</t>
+  </si>
+  <si>
+    <t>2019-07-18</t>
+  </si>
+  <si>
+    <t>2019-07-21</t>
+  </si>
+  <si>
+    <t>2019-07-24</t>
+  </si>
+  <si>
+    <t>2019-07-27</t>
+  </si>
+  <si>
+    <t>2019-07-30</t>
+  </si>
+  <si>
+    <t>2019-08-02</t>
+  </si>
+  <si>
+    <t>2019-08-05</t>
+  </si>
+  <si>
+    <t>2019-08-08</t>
+  </si>
+  <si>
+    <t>2019-08-11</t>
+  </si>
+  <si>
+    <t>2019-08-14</t>
+  </si>
+  <si>
+    <t>2019-08-15</t>
+  </si>
+  <si>
+    <t>2019-08-04</t>
+  </si>
+  <si>
+    <t>2019-08-07</t>
+  </si>
+  <si>
+    <t>2019-08-10</t>
+  </si>
+  <si>
+    <t>2019-08-13</t>
+  </si>
+  <si>
+    <t>2019-08-16</t>
+  </si>
+  <si>
+    <t>2019-08-19</t>
+  </si>
+  <si>
+    <t>2019-08-22</t>
+  </si>
+  <si>
+    <t>2019-08-25</t>
+  </si>
+  <si>
+    <t>2019-08-28</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-08-17</t>
+  </si>
+  <si>
+    <t>2019-08-20</t>
+  </si>
+  <si>
+    <t>2019-08-23</t>
+  </si>
+  <si>
+    <t>2019-08-26</t>
+  </si>
+  <si>
+    <t>2019-08-29</t>
+  </si>
+  <si>
+    <t>2019-11-16</t>
+  </si>
+  <si>
+    <t>2019-11-19</t>
+  </si>
+  <si>
+    <t>2019-11-22</t>
+  </si>
+  <si>
+    <t>2019-11-25</t>
+  </si>
+  <si>
+    <t>2019-11-28</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C1:H153"/>
+  <dimension ref="C1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -353,134 +607,94 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>DATE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>CHC-1 BED 548ft2</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>CHC-2 BED 656ft2</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>ASC-1 BED 624ft2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>ASC-2 BED 936ft2</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>ASC-3 BED 624ft2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2019-05-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2019-06-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2019-06-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2019-06-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2019-06-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2019-06-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2019-06-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2019-06-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2019-06-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2019-06-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2019-06-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2019-06-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2019-06-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="1" spans="1:8">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="C15" t="s">
+        <v>18</v>
       </c>
       <c r="D15" t="n">
         <v>228</v>
@@ -489,11 +703,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16">
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2019-11-04</t>
-        </is>
+    <row r="16" spans="1:8">
+      <c r="C16" t="s">
+        <v>19</v>
       </c>
       <c r="D16" t="n">
         <v>228</v>
@@ -502,11 +714,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17">
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
+    <row r="17" spans="1:8">
+      <c r="C17" t="s">
+        <v>20</v>
       </c>
       <c r="D17" t="n">
         <v>228</v>
@@ -515,18 +725,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="18">
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2019-11-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2019-11-13</t>
-        </is>
+    <row r="18" spans="1:8">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="C19" t="s">
+        <v>22</v>
       </c>
       <c r="D19" t="n">
         <v>228</v>
@@ -535,11 +741,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="20">
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2019-11-15</t>
-        </is>
+    <row r="20" spans="1:8">
+      <c r="C20" t="s">
+        <v>23</v>
       </c>
       <c r="D20" t="n">
         <v>228</v>
@@ -548,11 +752,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21">
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="21" spans="1:8">
+      <c r="C21" t="s">
+        <v>18</v>
       </c>
       <c r="D21" t="n">
         <v>228</v>
@@ -567,11 +769,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="22">
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2019-11-04</t>
-        </is>
+    <row r="22" spans="1:8">
+      <c r="C22" t="s">
+        <v>19</v>
       </c>
       <c r="D22" t="n">
         <v>228</v>
@@ -586,45 +786,35 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23">
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2019-11-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2019-07-01</t>
-        </is>
+    <row r="23" spans="1:8">
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" t="s">
+        <v>24</v>
       </c>
       <c r="G25" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="26">
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2019-07-04</t>
-        </is>
+    <row r="26" spans="1:8">
+      <c r="C26" t="s">
+        <v>25</v>
       </c>
       <c r="G26" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="27">
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2019-07-07</t>
-        </is>
+    <row r="27" spans="1:8">
+      <c r="C27" t="s">
+        <v>26</v>
       </c>
       <c r="G27" t="n">
         <v>353</v>
@@ -633,25 +823,19 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28">
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2019-07-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2019-07-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2019-07-15</t>
-        </is>
+    <row r="28" spans="1:8">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" t="s">
+        <v>29</v>
       </c>
       <c r="G30" t="n">
         <v>353</v>
@@ -660,11 +844,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31">
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="31" spans="1:8">
+      <c r="C31" t="s">
+        <v>18</v>
       </c>
       <c r="D31" t="n">
         <v>228</v>
@@ -679,11 +861,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32">
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2019-11-03</t>
-        </is>
+    <row r="32" spans="1:8">
+      <c r="C32" t="s">
+        <v>30</v>
       </c>
       <c r="D32" t="n">
         <v>228</v>
@@ -698,11 +878,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33">
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="33" spans="1:8">
+      <c r="C33" t="s">
+        <v>18</v>
       </c>
       <c r="D33" t="n">
         <v>228</v>
@@ -717,18 +895,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="34">
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2019-11-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="34" spans="1:8">
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="C35" t="s">
+        <v>18</v>
       </c>
       <c r="D35" t="n">
         <v>228</v>
@@ -743,18 +917,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36">
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2019-11-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="36" spans="1:8">
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="C37" t="s">
+        <v>18</v>
       </c>
       <c r="D37" t="n">
         <v>228</v>
@@ -769,11 +939,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38">
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2019-11-03</t>
-        </is>
+    <row r="38" spans="1:8">
+      <c r="C38" t="s">
+        <v>30</v>
       </c>
       <c r="D38" t="n">
         <v>228</v>
@@ -788,11 +956,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="39">
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="39" spans="1:8">
+      <c r="C39" t="s">
+        <v>18</v>
       </c>
       <c r="D39" t="n">
         <v>228</v>
@@ -807,18 +973,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40">
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2019-11-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="40" spans="1:8">
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="C41" t="s">
+        <v>18</v>
       </c>
       <c r="D41" t="n">
         <v>228</v>
@@ -833,11 +995,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42">
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2019-11-02</t>
-        </is>
+    <row r="42" spans="1:8">
+      <c r="C42" t="s">
+        <v>31</v>
       </c>
       <c r="D42" t="n">
         <v>228</v>
@@ -852,11 +1012,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="43">
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="43" spans="1:8">
+      <c r="C43" t="s">
+        <v>18</v>
       </c>
       <c r="D43" t="n">
         <v>228</v>
@@ -871,18 +1029,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44">
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2019-11-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="44" spans="1:8">
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="C45" t="s">
+        <v>18</v>
       </c>
       <c r="D45" t="n">
         <v>228</v>
@@ -897,11 +1051,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46">
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2019-11-02</t>
-        </is>
+    <row r="46" spans="1:8">
+      <c r="C46" t="s">
+        <v>31</v>
       </c>
       <c r="D46" t="n">
         <v>228</v>
@@ -916,11 +1068,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47">
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="47" spans="1:8">
+      <c r="C47" t="s">
+        <v>18</v>
       </c>
       <c r="D47" t="n">
         <v>228</v>
@@ -938,18 +1088,14 @@
         <v>371</v>
       </c>
     </row>
-    <row r="48">
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2019-11-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2019-12-01</t>
-        </is>
+    <row r="48" spans="1:8">
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="C49" t="s">
+        <v>32</v>
       </c>
       <c r="D49" t="n">
         <v>228</v>
@@ -967,169 +1113,127 @@
         <v>410</v>
       </c>
     </row>
-    <row r="50">
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2019-12-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2019-07-01</t>
-        </is>
+    <row r="50" spans="1:8">
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="C51" t="s">
+        <v>24</v>
       </c>
       <c r="F51" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="52">
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2019-07-04</t>
-        </is>
+    <row r="52" spans="1:8">
+      <c r="C52" t="s">
+        <v>25</v>
       </c>
       <c r="F52" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="53">
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2019-07-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2019-07-10</t>
-        </is>
+    <row r="53" spans="1:8">
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="C54" t="s">
+        <v>27</v>
       </c>
       <c r="F54" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="55">
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2019-07-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2019-07-16</t>
-        </is>
+    <row r="55" spans="1:8">
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="C56" t="s">
+        <v>34</v>
       </c>
       <c r="F56" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="57">
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2019-07-19</t>
-        </is>
+    <row r="57" spans="1:8">
+      <c r="C57" t="s">
+        <v>35</v>
       </c>
       <c r="F57" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="58">
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2019-07-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2019-07-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2019-07-28</t>
-        </is>
+    <row r="58" spans="1:8">
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="C59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="C60" t="s">
+        <v>38</v>
       </c>
       <c r="F60" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="61">
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2019-07-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2019-08-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2019-06-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2019-06-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2019-06-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2019-06-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2019-06-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2019-06-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2019-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="61" spans="1:8">
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="C68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="C70" t="s">
+        <v>18</v>
       </c>
       <c r="D70" t="n">
         <v>228</v>
@@ -1147,18 +1251,14 @@
         <v>371</v>
       </c>
     </row>
-    <row r="71">
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2019-11-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
+    <row r="71" spans="1:8">
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="C72" t="s">
+        <v>20</v>
       </c>
       <c r="D72" t="n">
         <v>228</v>
@@ -1176,11 +1276,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="73">
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2019-11-10</t>
-        </is>
+    <row r="73" spans="1:8">
+      <c r="C73" t="s">
+        <v>21</v>
       </c>
       <c r="D73" t="n">
         <v>228</v>
@@ -1198,11 +1296,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="74">
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>2019-11-04</t>
-        </is>
+    <row r="74" spans="1:8">
+      <c r="C74" t="s">
+        <v>19</v>
       </c>
       <c r="D74" t="n">
         <v>228</v>
@@ -1220,11 +1316,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="75">
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
+    <row r="75" spans="1:8">
+      <c r="C75" t="s">
+        <v>20</v>
       </c>
       <c r="D75" t="n">
         <v>228</v>
@@ -1242,11 +1336,9 @@
         <v>355</v>
       </c>
     </row>
-    <row r="76">
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>2019-11-10</t>
-        </is>
+    <row r="76" spans="1:8">
+      <c r="C76" t="s">
+        <v>21</v>
       </c>
       <c r="D76" t="n">
         <v>228</v>
@@ -1264,76 +1356,58 @@
         <v>355</v>
       </c>
     </row>
-    <row r="77">
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2019-07-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>2019-07-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>2019-07-07</t>
-        </is>
+    <row r="77" spans="1:8">
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="C79" t="s">
+        <v>26</v>
       </c>
       <c r="F79" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="80">
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2019-07-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2019-07-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2019-07-16</t>
-        </is>
+    <row r="80" spans="1:8">
+      <c r="C80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="C81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="C82" t="s">
+        <v>34</v>
       </c>
       <c r="F82" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="83">
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>2019-07-19</t>
-        </is>
+    <row r="83" spans="1:8">
+      <c r="C83" t="s">
+        <v>35</v>
       </c>
       <c r="F83" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="84">
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2019-07-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>2019-07-25</t>
-        </is>
+    <row r="84" spans="1:8">
+      <c r="C84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="C85" t="s">
+        <v>37</v>
       </c>
       <c r="D85" t="n">
         <v>410</v>
@@ -1342,18 +1416,14 @@
         <v>353</v>
       </c>
     </row>
-    <row r="86">
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>2019-07-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>2019-07-31</t>
-        </is>
+    <row r="86" spans="1:8">
+      <c r="C86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="C87" t="s">
+        <v>39</v>
       </c>
       <c r="D87" t="n">
         <v>410</v>
@@ -1362,59 +1432,45 @@
         <v>353</v>
       </c>
     </row>
-    <row r="88">
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>2019-06-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>2019-06-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>2019-07-02</t>
-        </is>
+    <row r="88" spans="1:8">
+      <c r="C88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="C89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="C90" t="s">
+        <v>47</v>
       </c>
       <c r="E90" t="n">
         <v>680</v>
       </c>
     </row>
-    <row r="91">
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>2019-07-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>2019-07-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>2019-07-10</t>
-        </is>
+    <row r="91" spans="1:8">
+      <c r="C91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="C92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="C93" t="s">
+        <v>27</v>
       </c>
       <c r="F93" t="n">
         <v>353</v>
       </c>
     </row>
-    <row r="94">
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="94" spans="1:8">
+      <c r="C94" t="s">
+        <v>18</v>
       </c>
       <c r="D94" t="n">
         <v>228</v>
@@ -1432,11 +1488,9 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95">
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>2019-11-02</t>
-        </is>
+    <row r="95" spans="1:8">
+      <c r="C95" t="s">
+        <v>31</v>
       </c>
       <c r="D95" t="n">
         <v>228</v>
@@ -1454,11 +1508,9 @@
         <v>366</v>
       </c>
     </row>
-    <row r="96">
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="96" spans="1:8">
+      <c r="C96" t="s">
+        <v>18</v>
       </c>
       <c r="D96" t="n">
         <v>228</v>
@@ -1467,18 +1519,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="97">
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>2019-11-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="97" spans="1:8">
+      <c r="C97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="C98" t="s">
+        <v>18</v>
       </c>
       <c r="D98" t="n">
         <v>228</v>
@@ -1487,18 +1535,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="99">
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>2019-11-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="99" spans="1:8">
+      <c r="C99" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="C100" t="s">
+        <v>18</v>
       </c>
       <c r="D100" t="n">
         <v>228</v>
@@ -1507,18 +1551,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="101">
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>2019-11-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="101" spans="1:8">
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="C102" t="s">
+        <v>18</v>
       </c>
       <c r="D102" t="n">
         <v>228</v>
@@ -1527,160 +1567,124 @@
         <v>296</v>
       </c>
     </row>
-    <row r="103">
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>2019-11-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2019-07-15</t>
-        </is>
+    <row r="103" spans="1:8">
+      <c r="C103" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="C104" t="s">
+        <v>29</v>
       </c>
       <c r="F104" t="n">
         <v>321</v>
       </c>
     </row>
-    <row r="105">
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>2019-07-18</t>
-        </is>
+    <row r="105" spans="1:8">
+      <c r="C105" t="s">
+        <v>50</v>
       </c>
       <c r="F105" t="n">
         <v>321</v>
       </c>
     </row>
-    <row r="106">
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2019-07-21</t>
-        </is>
+    <row r="106" spans="1:8">
+      <c r="C106" t="s">
+        <v>51</v>
       </c>
       <c r="F106" t="n">
         <v>321</v>
       </c>
     </row>
-    <row r="107">
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>2019-07-24</t>
-        </is>
+    <row r="107" spans="1:8">
+      <c r="C107" t="s">
+        <v>52</v>
       </c>
       <c r="F107" t="n">
         <v>321</v>
       </c>
     </row>
-    <row r="108">
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>2019-07-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>2019-07-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>2019-08-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>2019-08-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>2019-08-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>2019-08-11</t>
-        </is>
+    <row r="108" spans="1:8">
+      <c r="C108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="C109" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="C110" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="C111" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="C112" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="C113" t="s">
+        <v>58</v>
       </c>
       <c r="F113" t="n">
         <v>321</v>
       </c>
     </row>
-    <row r="114">
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>2019-08-14</t>
-        </is>
+    <row r="114" spans="1:8">
+      <c r="C114" t="s">
+        <v>59</v>
       </c>
       <c r="F114" t="n">
         <v>321</v>
       </c>
     </row>
-    <row r="115">
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>2019-08-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>2019-08-01</t>
-        </is>
+    <row r="115" spans="1:8">
+      <c r="C115" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="C116" t="s">
+        <v>40</v>
       </c>
       <c r="D116" t="n">
         <v>410</v>
       </c>
     </row>
-    <row r="117">
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>2019-08-04</t>
-        </is>
+    <row r="117" spans="1:8">
+      <c r="C117" t="s">
+        <v>61</v>
       </c>
       <c r="D117" t="n">
         <v>410</v>
       </c>
     </row>
-    <row r="118">
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>2019-08-07</t>
-        </is>
+    <row r="118" spans="1:8">
+      <c r="C118" t="s">
+        <v>62</v>
       </c>
       <c r="D118" t="n">
         <v>410</v>
       </c>
     </row>
-    <row r="119">
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>2019-08-10</t>
-        </is>
+    <row r="119" spans="1:8">
+      <c r="C119" t="s">
+        <v>63</v>
       </c>
       <c r="D119" t="n">
         <v>410</v>
       </c>
     </row>
-    <row r="120">
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>2019-08-13</t>
-        </is>
+    <row r="120" spans="1:8">
+      <c r="C120" t="s">
+        <v>64</v>
       </c>
       <c r="D120" t="n">
         <v>410</v>
@@ -1689,11 +1693,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="121">
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>2019-08-16</t>
-        </is>
+    <row r="121" spans="1:8">
+      <c r="C121" t="s">
+        <v>65</v>
       </c>
       <c r="D121" t="n">
         <v>410</v>
@@ -1702,11 +1704,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="122">
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>2019-08-19</t>
-        </is>
+    <row r="122" spans="1:8">
+      <c r="C122" t="s">
+        <v>66</v>
       </c>
       <c r="D122" t="n">
         <v>410</v>
@@ -1715,118 +1715,88 @@
         <v>330</v>
       </c>
     </row>
-    <row r="123">
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>2019-08-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>2019-08-25</t>
-        </is>
+    <row r="123" spans="1:8">
+      <c r="C123" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="C124" t="s">
+        <v>68</v>
       </c>
       <c r="F124" t="n">
         <v>331</v>
       </c>
     </row>
-    <row r="125">
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>2019-08-28</t>
-        </is>
+    <row r="125" spans="1:8">
+      <c r="C125" t="s">
+        <v>69</v>
       </c>
       <c r="F125" t="n">
         <v>331</v>
       </c>
     </row>
-    <row r="126">
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>2019-07-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>2019-07-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>2019-07-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>2019-07-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>2019-07-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>2019-08-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>2019-08-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>2019-08-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>2019-08-11</t>
-        </is>
+    <row r="126" spans="1:8">
+      <c r="C126" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="C127" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="C128" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="C129" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="C130" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="C131" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="C132" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="C133" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="C134" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="C135" t="s">
+        <v>58</v>
       </c>
       <c r="F135" t="n">
         <v>331</v>
       </c>
     </row>
-    <row r="136">
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>2019-08-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>2019-08-17</t>
-        </is>
+    <row r="136" spans="1:8">
+      <c r="C136" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="C137" t="s">
+        <v>71</v>
       </c>
       <c r="D137" t="n">
         <v>410</v>
@@ -1835,11 +1805,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="138">
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>2019-08-20</t>
-        </is>
+    <row r="138" spans="1:8">
+      <c r="C138" t="s">
+        <v>72</v>
       </c>
       <c r="D138" t="n">
         <v>410</v>
@@ -1848,52 +1816,40 @@
         <v>331</v>
       </c>
     </row>
-    <row r="139">
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>2019-08-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>2019-08-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>2019-08-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
+    <row r="139" spans="1:8">
+      <c r="C139" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="C140" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="C141" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="C142" t="s">
+        <v>70</v>
       </c>
       <c r="F142" t="n">
         <v>331</v>
       </c>
     </row>
-    <row r="143">
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>2019-11-01</t>
-        </is>
+    <row r="143" spans="1:8">
+      <c r="C143" t="s">
+        <v>18</v>
       </c>
       <c r="G143" t="n">
         <v>441</v>
       </c>
     </row>
-    <row r="144">
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>2019-11-04</t>
-        </is>
+    <row r="144" spans="1:8">
+      <c r="C144" t="s">
+        <v>19</v>
       </c>
       <c r="F144" t="n">
         <v>190</v>
@@ -1902,75 +1858,59 @@
         <v>284</v>
       </c>
     </row>
-    <row r="145">
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>2019-11-07</t>
-        </is>
+    <row r="145" spans="1:8">
+      <c r="C145" t="s">
+        <v>20</v>
       </c>
       <c r="G145" t="n">
         <v>284</v>
       </c>
     </row>
-    <row r="146">
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>2019-11-10</t>
-        </is>
+    <row r="146" spans="1:8">
+      <c r="C146" t="s">
+        <v>21</v>
       </c>
       <c r="G146" t="n">
         <v>284</v>
       </c>
     </row>
-    <row r="147">
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>2019-11-13</t>
-        </is>
+    <row r="147" spans="1:8">
+      <c r="C147" t="s">
+        <v>22</v>
       </c>
       <c r="G147" t="n">
         <v>289</v>
       </c>
     </row>
-    <row r="148">
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>2019-11-16</t>
-        </is>
+    <row r="148" spans="1:8">
+      <c r="C148" t="s">
+        <v>76</v>
       </c>
       <c r="G148" t="n">
         <v>303</v>
       </c>
     </row>
-    <row r="149">
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>2019-11-19</t>
-        </is>
+    <row r="149" spans="1:8">
+      <c r="C149" t="s">
+        <v>77</v>
       </c>
       <c r="G149" t="n">
         <v>317</v>
       </c>
     </row>
-    <row r="150">
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>2019-11-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>2019-11-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
+    <row r="150" spans="1:8">
+      <c r="C150" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="C151" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="C152" t="s">
+        <v>80</v>
       </c>
       <c r="F152" t="n">
         <v>213</v>
@@ -1979,17 +1919,49 @@
         <v>331</v>
       </c>
     </row>
-    <row r="153">
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>2019-11-30</t>
-        </is>
+    <row r="153" spans="1:8">
+      <c r="C153" t="s">
+        <v>81</v>
       </c>
       <c r="F153" t="n">
         <v>213</v>
       </c>
       <c r="G153" t="n">
         <v>331</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="C154" t="s">
+        <v>82</v>
+      </c>
+      <c r="F154" t="n">
+        <v>176</v>
+      </c>
+      <c r="G154" t="n">
+        <v>281</v>
+      </c>
+      <c r="H154" t="n">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="C155" t="s">
+        <v>82</v>
+      </c>
+      <c r="D155" t="n">
+        <v>25</v>
+      </c>
+      <c r="E155" t="n">
+        <v>319</v>
+      </c>
+      <c r="F155" t="n">
+        <v>176</v>
+      </c>
+      <c r="G155" t="n">
+        <v>281</v>
+      </c>
+      <c r="H155" t="n">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
